--- a/Excel_Files/StateAbbreviation.xlsx
+++ b/Excel_Files/StateAbbreviation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rober\Desktop\ClassHomework\Team6_Project_1\Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phass\Desktop\ClassHomework\Team6_Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D000BC2E-48C9-4275-9D11-7D872448CFAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C1170C-982F-446B-9544-191A426AE119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="930" windowWidth="11520" windowHeight="13410" xr2:uid="{E39DB91E-C8EC-5B4A-B83A-3557C47D9C99}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E39DB91E-C8EC-5B4A-B83A-3557C47D9C99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
-  <si>
-    <t>Abbreviation:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Alabama</t>
   </si>
@@ -338,62 +335,23 @@
     <t>WY</t>
   </si>
   <si>
-    <t>Commonwealth/Territory:</t>
-  </si>
-  <si>
     <t>District of Columbia</t>
   </si>
   <si>
     <t>DC</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>MH</t>
-  </si>
-  <si>
-    <t>Military “State”:</t>
-  </si>
-  <si>
-    <t>Armed Forces Africa</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>Armed Forces Americas</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>Armed Forces Canada</t>
-  </si>
-  <si>
-    <t>Armed Forces Europe</t>
-  </si>
-  <si>
-    <t>Armed Forces Middle East</t>
-  </si>
-  <si>
-    <t>Armed Forces Pacific</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>State Abbreviation</t>
+    <t>Abbreviation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,28 +360,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -449,13 +400,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,505 +722,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422A0A8-F58A-104C-9250-6C23E92D94EB}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1202,7 @@
     <hyperlink ref="A49" r:id="rId48" display="https://www.50states.com/westvirginia.htm" xr:uid="{64967280-8569-4D4B-9726-BDDD90178ADE}"/>
     <hyperlink ref="A50" r:id="rId49" display="https://www.50states.com/wisconsin.htm" xr:uid="{5EA8C49C-E4B9-764D-ACC1-7CB7B50DE716}"/>
     <hyperlink ref="A51" r:id="rId50" display="https://www.50states.com/wyoming.htm" xr:uid="{80522ECA-3396-7743-A69C-6149E5172A42}"/>
-    <hyperlink ref="A53" r:id="rId51" display="https://www.50states.com/dc.htm" xr:uid="{98ED2E8C-A351-3E49-9055-B783DFDAC5A4}"/>
+    <hyperlink ref="A52" r:id="rId51" display="https://www.50states.com/dc.htm" xr:uid="{98ED2E8C-A351-3E49-9055-B783DFDAC5A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
